--- a/data/trans_bre/P5_3-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P5_3-Edad-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>6,04</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,02</t>
+          <t>2,71</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,6%</t>
+          <t>17,49%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,81%</t>
+          <t>7,76%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-16,55; 17,36</t>
+          <t>-17,4; 28,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-17,41; 16,41</t>
+          <t>-20,74; 24,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-36,54; 67,58</t>
+          <t>-37,82; 135,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-38,66; 67,25</t>
+          <t>-45,6; 115,58</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,97</t>
+          <t>6,6</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,94</t>
+          <t>5,61</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>105,54%</t>
+          <t>69,71%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>95,09%</t>
+          <t>52,06%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 19,45</t>
+          <t>-6,83; 20,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 19,95</t>
+          <t>-9,7; 19,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-10,71; 540,02</t>
+          <t>-48,61; 510,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-12,57; 482,39</t>
+          <t>-55,13; 386,04</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,87</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,58</t>
+          <t>2,84</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>36,99%</t>
+          <t>8,52%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,39%</t>
+          <t>13,38%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 14,6</t>
+          <t>-12,52; 14,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-17,22; 12,85</t>
+          <t>-12,0; 15,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-21,77; 134,28</t>
+          <t>-42,6; 114,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-52,3; 95,17</t>
+          <t>-39,47; 120,68</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>1,82</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-2,3%</t>
+          <t>9,07%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,34%</t>
+          <t>7,5%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-11,67; 9,35</t>
+          <t>-9,61; 15,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-11,7; 10,11</t>
+          <t>-10,24; 14,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-34,79; 43,6</t>
+          <t>-33,16; 86,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-34,6; 46,99</t>
+          <t>-36,03; 84,18</t>
         </is>
       </c>
     </row>
@@ -821,22 +821,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-5,5</t>
+          <t>2,54</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-5,91</t>
+          <t>2,8</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-20,42%</t>
+          <t>9,75%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-22,06%</t>
+          <t>10,86%</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-16,52; 6,67</t>
+          <t>-11,64; 18,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-17,15; 5,69</t>
+          <t>-11,22; 19,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-50,75; 32,51</t>
+          <t>-38,76; 105,15</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-52,5; 28,46</t>
+          <t>-37,5; 107,86</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-10,8</t>
+          <t>-13,64</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-12,86</t>
+          <t>-16,78</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-32,23%</t>
+          <t>-36,35%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-38,01%</t>
+          <t>-41,46%</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-24,48; 3,4</t>
+          <t>-33,58; 8,06</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-26,44; 1,11</t>
+          <t>-36,44; 5,39</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-58,25; 14,51</t>
+          <t>-71,5; 39,52</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-62,5; 7,21</t>
+          <t>-73,79; 22,25</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,95</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>7,32%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-3,79%</t>
+          <t>3,17%</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,29 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 5,09</t>
+          <t>-5,01; 8,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,59; 4,33</t>
+          <t>-6,19; 7,19</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-17,36; 23,76</t>
+          <t>-17,97; 38,15</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-22,62; 19,99</t>
+          <t>-21,59; 34,62</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P5_3-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P5_3-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>6,04</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,71</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>17,49%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>7,76%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>6.040379053761757</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>2.346853828615858</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0.1748803406111477</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.07162831068569527</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-17,4; 28,03</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-20,74; 24,65</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-37,82; 135,71</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-45,6; 115,58</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-17.40134225618204</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-21.82673352026547</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.3782216467038728</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.4764767028199481</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>28.02963184580378</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>23.67877903078059</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>1.357088785561884</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>1.216890881561669</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>6,6</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>5,61</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>69,71%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>52,06%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-6,83; 20,3</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-9,7; 19,08</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-48,61; 510,22</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-55,13; 386,04</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>6.599347723731526</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>2.057524489480356</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.6971322307389825</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.1546682904847853</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,81</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>2,84</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>8,52%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>13,38%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-6.831430425619374</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-19.93268685684137</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.4861286520342305</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.7420428392842433</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-12,52; 14,18</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-12,0; 15,11</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-42,6; 114,4</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-39,47; 120,68</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>20.30102245490043</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>14.62549329072533</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>5.102165450793325</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>2.483055138122355</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,179 +716,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>2,22</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,82</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>9,07%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>7,5%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>1.81335530762041</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>2.155183623070223</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.08520738379172629</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.09357011342211241</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-9,61; 15,63</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-10,24; 14,61</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-33,16; 86,98</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-36,03; 84,18</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-12.52176204973667</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-14.78613320422268</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.4260099976801749</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.435328339392121</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>14.17985023176076</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>15.37882509856266</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>1.144017492080265</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>1.182077403920265</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>2,54</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>2,8</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>9,75%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>10,86%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-11,64; 18,84</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-11,22; 19,62</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-38,76; 105,15</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-37,5; 107,86</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>2.219868752373066</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>2.891126837689578</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.09074548735107472</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.1211894487074401</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-13,64</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-16,78</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-36,35%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-41,46%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-9.606941686534368</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-10.06786729117577</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.3316452627486407</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.3475951499321246</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-33,58; 8,06</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-36,44; 5,39</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-71,5; 39,52</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-73,79; 22,25</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>15.62582534690193</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>16.45215837260979</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.8698449762681418</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.9731456055151073</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -939,57 +844,189 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>1,77</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,78</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>7,32%</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>3,17%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>2.539541633921921</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>4.968779133672801</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>0.09752647822526068</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>0.2046757479484571</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-5,01; 8,05</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-6,19; 7,19</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-17,97; 38,15</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-21,59; 34,62</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-11.63813590287833</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-8.947884897082425</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>-0.387596899394322</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>-0.3296587721830786</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>18.84360133226229</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>22.25667491733259</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>1.051459348727096</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>1.276808152627498</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>-13.64128576072149</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-20.61145953743879</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.3635449524246364</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>-0.454877266958771</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-33.57734705068123</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-40.89836153268542</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.714996526665732</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>-0.7507558880762317</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>8.060703524816258</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>3.886740380961949</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.3952062413290641</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>0.1537234689084011</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>1.76819503839998</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.4524911784978991</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>0.07319676997120156</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>0.01789687018149651</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-5.01081837944665</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-7.004661686804865</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>-0.1796706987010742</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>-0.2274366871610434</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>8.053737543161759</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>6.985888501801917</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>0.3815236357790879</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>0.3312981329624573</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -997,16 +1034,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
